--- a/Para RAW Timetable.xlsx
+++ b/Para RAW Timetable.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$291</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="888">
   <si>
     <t>Session ID</t>
   </si>
@@ -1311,12 +1311,6 @@
   </si>
   <si>
     <t>150</t>
-  </si>
-  <si>
-    <t>4x50</t>
-  </si>
-  <si>
-    <t>4x100</t>
   </si>
   <si>
     <t>M 400 Fr S8</t>
@@ -3092,7 +3086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3185,10 +3179,10 @@
         <v>14</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>424</v>
@@ -3223,10 +3217,10 @@
         <v>14</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>424</v>
@@ -3261,10 +3255,10 @@
         <v>14</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>425</v>
@@ -3299,10 +3293,10 @@
         <v>14</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>425</v>
@@ -3337,10 +3331,10 @@
         <v>14</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>425</v>
@@ -3375,10 +3369,10 @@
         <v>14</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>426</v>
@@ -3413,10 +3407,10 @@
         <v>14</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>426</v>
@@ -3451,10 +3445,10 @@
         <v>14</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>426</v>
@@ -3489,10 +3483,10 @@
         <v>14</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>425</v>
@@ -3527,10 +3521,10 @@
         <v>14</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>425</v>
@@ -3565,10 +3559,10 @@
         <v>14</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>32</v>
@@ -3603,10 +3597,10 @@
         <v>14</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>32</v>
@@ -3641,10 +3635,10 @@
         <v>14</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>426</v>
@@ -3679,10 +3673,10 @@
         <v>14</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>426</v>
@@ -3717,10 +3711,10 @@
         <v>14</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>426</v>
@@ -3755,10 +3749,10 @@
         <v>14</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>425</v>
@@ -3793,10 +3787,10 @@
         <v>14</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>425</v>
@@ -3831,10 +3825,10 @@
         <v>14</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>425</v>
@@ -3869,10 +3863,10 @@
         <v>14</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>426</v>
@@ -3907,10 +3901,10 @@
         <v>14</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>426</v>
@@ -3945,10 +3939,10 @@
         <v>13</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>424</v>
@@ -3983,10 +3977,10 @@
         <v>13</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>424</v>
@@ -4021,10 +4015,10 @@
         <v>13</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>425</v>
@@ -4059,10 +4053,10 @@
         <v>13</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>425</v>
@@ -4097,10 +4091,10 @@
         <v>13</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>425</v>
@@ -4135,10 +4129,10 @@
         <v>13</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>425</v>
@@ -4173,10 +4167,10 @@
         <v>13</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>426</v>
@@ -4211,10 +4205,10 @@
         <v>13</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>426</v>
@@ -4249,10 +4243,10 @@
         <v>13</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>426</v>
@@ -4287,10 +4281,10 @@
         <v>13</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>426</v>
@@ -4325,10 +4319,10 @@
         <v>13</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>425</v>
@@ -4363,10 +4357,10 @@
         <v>13</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="N33" s="10" t="s">
         <v>425</v>
@@ -4401,10 +4395,10 @@
         <v>13</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>32</v>
@@ -4439,10 +4433,10 @@
         <v>13</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>32</v>
@@ -4477,10 +4471,10 @@
         <v>13</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>32</v>
@@ -4515,10 +4509,10 @@
         <v>13</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="N37" s="10" t="s">
         <v>32</v>
@@ -4553,10 +4547,10 @@
         <v>13</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>426</v>
@@ -4591,10 +4585,10 @@
         <v>13</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="N39" s="10" t="s">
         <v>426</v>
@@ -4629,10 +4623,10 @@
         <v>13</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>426</v>
@@ -4667,10 +4661,10 @@
         <v>13</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N41" s="10" t="s">
         <v>426</v>
@@ -4705,10 +4699,10 @@
         <v>13</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>425</v>
@@ -4743,10 +4737,10 @@
         <v>13</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N43" s="10" t="s">
         <v>425</v>
@@ -4781,10 +4775,10 @@
         <v>13</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>425</v>
@@ -4819,10 +4813,10 @@
         <v>13</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>425</v>
@@ -4857,10 +4851,10 @@
         <v>13</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>426</v>
@@ -4895,10 +4889,10 @@
         <v>13</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>426</v>
@@ -4933,10 +4927,10 @@
         <v>14</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>425</v>
@@ -4971,10 +4965,10 @@
         <v>14</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="N49" s="10" t="s">
         <v>426</v>
@@ -5009,10 +5003,10 @@
         <v>14</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>426</v>
@@ -5047,10 +5041,10 @@
         <v>14</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N51" s="10" t="s">
         <v>427</v>
@@ -5085,10 +5079,10 @@
         <v>14</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>425</v>
@@ -5123,10 +5117,10 @@
         <v>14</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N53" s="10" t="s">
         <v>425</v>
@@ -5161,10 +5155,10 @@
         <v>14</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>32</v>
@@ -5199,10 +5193,10 @@
         <v>14</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N55" s="10" t="s">
         <v>32</v>
@@ -5237,10 +5231,10 @@
         <v>14</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N56" s="10" t="s">
         <v>425</v>
@@ -5275,10 +5269,10 @@
         <v>14</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>425</v>
@@ -5313,10 +5307,10 @@
         <v>14</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>425</v>
@@ -5351,10 +5345,10 @@
         <v>14</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>425</v>
@@ -5389,10 +5383,10 @@
         <v>14</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="N60" s="10" t="s">
         <v>425</v>
@@ -5427,10 +5421,10 @@
         <v>14</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>32</v>
@@ -5465,10 +5459,10 @@
         <v>14</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>32</v>
@@ -5503,10 +5497,10 @@
         <v>13</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>424</v>
@@ -5541,10 +5535,10 @@
         <v>13</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N64" s="10" t="s">
         <v>424</v>
@@ -5579,10 +5573,10 @@
         <v>13</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N65" s="10" t="s">
         <v>425</v>
@@ -5617,10 +5611,10 @@
         <v>13</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>425</v>
@@ -5655,10 +5649,10 @@
         <v>13</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N67" s="10" t="s">
         <v>426</v>
@@ -5693,10 +5687,10 @@
         <v>13</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N68" s="10" t="s">
         <v>426</v>
@@ -5731,10 +5725,10 @@
         <v>13</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N69" s="10" t="s">
         <v>427</v>
@@ -5769,10 +5763,10 @@
         <v>13</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="N70" s="10" t="s">
         <v>427</v>
@@ -5807,10 +5801,10 @@
         <v>13</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N71" s="10" t="s">
         <v>425</v>
@@ -5845,10 +5839,10 @@
         <v>13</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N72" s="10" t="s">
         <v>425</v>
@@ -5883,10 +5877,10 @@
         <v>13</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N73" s="10" t="s">
         <v>32</v>
@@ -5921,10 +5915,10 @@
         <v>13</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="N74" s="10" t="s">
         <v>32</v>
@@ -5959,10 +5953,10 @@
         <v>13</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N75" s="10" t="s">
         <v>425</v>
@@ -5997,10 +5991,10 @@
         <v>13</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="N76" s="10" t="s">
         <v>425</v>
@@ -6035,10 +6029,10 @@
         <v>13</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N77" s="10" t="s">
         <v>425</v>
@@ -6073,10 +6067,10 @@
         <v>13</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N78" s="10" t="s">
         <v>425</v>
@@ -6111,10 +6105,10 @@
         <v>13</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N79" s="10" t="s">
         <v>425</v>
@@ -6149,10 +6143,10 @@
         <v>13</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N80" s="10" t="s">
         <v>425</v>
@@ -6187,10 +6181,10 @@
         <v>13</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N81" s="10" t="s">
         <v>425</v>
@@ -6225,10 +6219,10 @@
         <v>13</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="N82" s="10" t="s">
         <v>425</v>
@@ -6263,10 +6257,10 @@
         <v>13</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N83" s="10" t="s">
         <v>425</v>
@@ -6301,10 +6295,10 @@
         <v>13</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="N84" s="10" t="s">
         <v>32</v>
@@ -6339,10 +6333,10 @@
         <v>13</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N85" s="10" t="s">
         <v>32</v>
@@ -6377,13 +6371,13 @@
         <v>13</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="N86" s="10" t="s">
-        <v>428</v>
+        <v>562</v>
+      </c>
+      <c r="N86" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -6415,10 +6409,10 @@
         <v>14</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N87" s="10" t="s">
         <v>425</v>
@@ -6453,10 +6447,10 @@
         <v>14</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N88" s="10" t="s">
         <v>425</v>
@@ -6491,10 +6485,10 @@
         <v>14</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N89" s="10" t="s">
         <v>427</v>
@@ -6529,10 +6523,10 @@
         <v>14</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="N90" s="10" t="s">
         <v>426</v>
@@ -6567,10 +6561,10 @@
         <v>14</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N91" s="10" t="s">
         <v>426</v>
@@ -6605,10 +6599,10 @@
         <v>14</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N92" s="10" t="s">
         <v>426</v>
@@ -6643,10 +6637,10 @@
         <v>14</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="N93" s="10" t="s">
         <v>426</v>
@@ -6681,10 +6675,10 @@
         <v>14</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="N94" s="10" t="s">
         <v>32</v>
@@ -6719,10 +6713,10 @@
         <v>14</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N95" s="10" t="s">
         <v>425</v>
@@ -6757,10 +6751,10 @@
         <v>14</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="N96" s="10" t="s">
         <v>425</v>
@@ -6795,10 +6789,10 @@
         <v>14</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="N97" s="10" t="s">
         <v>424</v>
@@ -6833,10 +6827,10 @@
         <v>14</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N98" s="10" t="s">
         <v>425</v>
@@ -6871,10 +6865,10 @@
         <v>14</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N99" s="10" t="s">
         <v>425</v>
@@ -6909,10 +6903,10 @@
         <v>14</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M100" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="N100" s="10" t="s">
         <v>425</v>
@@ -6947,10 +6941,10 @@
         <v>14</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N101" s="10" t="s">
         <v>425</v>
@@ -6985,10 +6979,10 @@
         <v>13</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M102" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="N102" s="10" t="s">
         <v>425</v>
@@ -7023,10 +7017,10 @@
         <v>13</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="N103" s="10" t="s">
         <v>425</v>
@@ -7061,10 +7055,10 @@
         <v>13</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="N104" s="10" t="s">
         <v>425</v>
@@ -7099,10 +7093,10 @@
         <v>13</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N105" s="10" t="s">
         <v>425</v>
@@ -7134,10 +7128,10 @@
         <v>13</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="N106" s="10" t="s">
         <v>425</v>
@@ -7169,10 +7163,10 @@
         <v>13</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N107" s="10" t="s">
         <v>425</v>
@@ -7204,10 +7198,10 @@
         <v>13</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="N108" s="10" t="s">
         <v>427</v>
@@ -7239,10 +7233,10 @@
         <v>13</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N109" s="10" t="s">
         <v>427</v>
@@ -7274,10 +7268,10 @@
         <v>13</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M110" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N110" s="10" t="s">
         <v>426</v>
@@ -7309,10 +7303,10 @@
         <v>13</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N111" s="10" t="s">
         <v>426</v>
@@ -7344,10 +7338,10 @@
         <v>13</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M112" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="N112" s="10" t="s">
         <v>426</v>
@@ -7379,10 +7373,10 @@
         <v>13</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="N113" s="10" t="s">
         <v>426</v>
@@ -7414,10 +7408,10 @@
         <v>13</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M114" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="N114" s="10" t="s">
         <v>32</v>
@@ -7449,10 +7443,10 @@
         <v>13</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="N115" s="10" t="s">
         <v>32</v>
@@ -7484,10 +7478,10 @@
         <v>13</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="M116" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="N116" s="10" t="s">
         <v>425</v>
@@ -7519,10 +7513,10 @@
         <v>13</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N117" s="10" t="s">
         <v>425</v>
@@ -7554,10 +7548,10 @@
         <v>13</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="M118" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="N118" s="10" t="s">
         <v>424</v>
@@ -7589,10 +7583,10 @@
         <v>13</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="N119" s="10" t="s">
         <v>424</v>
@@ -7624,10 +7618,10 @@
         <v>13</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M120" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="N120" s="10" t="s">
         <v>425</v>
@@ -7659,10 +7653,10 @@
         <v>13</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="M121" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="N121" s="10" t="s">
         <v>425</v>
@@ -7694,10 +7688,10 @@
         <v>13</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M122" s="8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N122" s="10" t="s">
         <v>425</v>
@@ -7729,10 +7723,10 @@
         <v>13</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M123" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="N123" s="10" t="s">
         <v>425</v>
@@ -7764,10 +7758,10 @@
         <v>13</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M124" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="N124" s="10" t="s">
         <v>425</v>
@@ -7799,10 +7793,10 @@
         <v>13</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M125" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="N125" s="10" t="s">
         <v>425</v>
@@ -7834,13 +7828,13 @@
         <v>13</v>
       </c>
       <c r="L126" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="M126" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="N126" s="10" t="s">
-        <v>428</v>
+        <v>629</v>
+      </c>
+      <c r="N126" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -7869,10 +7863,10 @@
         <v>14</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M127" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N127" s="10" t="s">
         <v>425</v>
@@ -7904,10 +7898,10 @@
         <v>14</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M128" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="N128" s="10" t="s">
         <v>425</v>
@@ -7939,10 +7933,10 @@
         <v>14</v>
       </c>
       <c r="L129" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="M129" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="N129" s="10" t="s">
         <v>425</v>
@@ -7974,10 +7968,10 @@
         <v>14</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M130" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="N130" s="10" t="s">
         <v>425</v>
@@ -8009,10 +8003,10 @@
         <v>14</v>
       </c>
       <c r="L131" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M131" s="8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N131" s="10" t="s">
         <v>426</v>
@@ -8044,10 +8038,10 @@
         <v>14</v>
       </c>
       <c r="L132" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="M132" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="N132" s="10" t="s">
         <v>426</v>
@@ -8079,10 +8073,10 @@
         <v>14</v>
       </c>
       <c r="L133" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="M133" s="8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="N133" s="10" t="s">
         <v>426</v>
@@ -8114,10 +8108,10 @@
         <v>14</v>
       </c>
       <c r="L134" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M134" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="N134" s="10" t="s">
         <v>32</v>
@@ -8149,10 +8143,10 @@
         <v>14</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M135" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="N135" s="10" t="s">
         <v>32</v>
@@ -8184,10 +8178,10 @@
         <v>14</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="M136" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="N136" s="10" t="s">
         <v>425</v>
@@ -8219,10 +8213,10 @@
         <v>14</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M137" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="N137" s="10" t="s">
         <v>425</v>
@@ -8254,10 +8248,10 @@
         <v>14</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M138" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="N138" s="10" t="s">
         <v>425</v>
@@ -8289,10 +8283,10 @@
         <v>13</v>
       </c>
       <c r="L139" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="M139" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="N139" s="10" t="s">
         <v>424</v>
@@ -8324,10 +8318,10 @@
         <v>13</v>
       </c>
       <c r="L140" s="8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="M140" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="N140" s="10" t="s">
         <v>424</v>
@@ -8359,10 +8353,10 @@
         <v>13</v>
       </c>
       <c r="L141" s="8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="M141" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="N141" s="10" t="s">
         <v>32</v>
@@ -8394,10 +8388,10 @@
         <v>13</v>
       </c>
       <c r="L142" s="8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M142" s="8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="N142" s="10" t="s">
         <v>32</v>
@@ -8429,10 +8423,10 @@
         <v>13</v>
       </c>
       <c r="L143" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M143" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="N143" s="10" t="s">
         <v>425</v>
@@ -8464,10 +8458,10 @@
         <v>13</v>
       </c>
       <c r="L144" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M144" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N144" s="10" t="s">
         <v>425</v>
@@ -8499,10 +8493,10 @@
         <v>13</v>
       </c>
       <c r="L145" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="M145" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="N145" s="10" t="s">
         <v>425</v>
@@ -8534,10 +8528,10 @@
         <v>13</v>
       </c>
       <c r="L146" s="8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="M146" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="N146" s="10" t="s">
         <v>425</v>
@@ -8569,10 +8563,10 @@
         <v>13</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M147" s="8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="N147" s="10" t="s">
         <v>425</v>
@@ -8604,10 +8598,10 @@
         <v>13</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="M148" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N148" s="10" t="s">
         <v>425</v>
@@ -8639,10 +8633,10 @@
         <v>13</v>
       </c>
       <c r="L149" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M149" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N149" s="10" t="s">
         <v>426</v>
@@ -8674,10 +8668,10 @@
         <v>13</v>
       </c>
       <c r="L150" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="M150" s="8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N150" s="10" t="s">
         <v>426</v>
@@ -8709,10 +8703,10 @@
         <v>13</v>
       </c>
       <c r="L151" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="M151" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N151" s="10" t="s">
         <v>426</v>
@@ -8744,10 +8738,10 @@
         <v>13</v>
       </c>
       <c r="L152" s="8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="M152" s="8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N152" s="10" t="s">
         <v>426</v>
@@ -8779,10 +8773,10 @@
         <v>13</v>
       </c>
       <c r="L153" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M153" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N153" s="10" t="s">
         <v>32</v>
@@ -8814,10 +8808,10 @@
         <v>13</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M154" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N154" s="10" t="s">
         <v>32</v>
@@ -8849,10 +8843,10 @@
         <v>13</v>
       </c>
       <c r="L155" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M155" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N155" s="10" t="s">
         <v>32</v>
@@ -8884,10 +8878,10 @@
         <v>13</v>
       </c>
       <c r="L156" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M156" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N156" s="10" t="s">
         <v>32</v>
@@ -8919,10 +8913,10 @@
         <v>13</v>
       </c>
       <c r="L157" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="M157" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N157" s="10" t="s">
         <v>425</v>
@@ -8954,10 +8948,10 @@
         <v>13</v>
       </c>
       <c r="L158" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M158" s="8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N158" s="10" t="s">
         <v>425</v>
@@ -8989,10 +8983,10 @@
         <v>13</v>
       </c>
       <c r="L159" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M159" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N159" s="10" t="s">
         <v>425</v>
@@ -9024,10 +9018,10 @@
         <v>13</v>
       </c>
       <c r="L160" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M160" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N160" s="10" t="s">
         <v>425</v>
@@ -9059,13 +9053,13 @@
         <v>13</v>
       </c>
       <c r="L161" s="8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="M161" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="N161" s="10" t="s">
-        <v>429</v>
+        <v>687</v>
+      </c>
+      <c r="N161" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -9094,13 +9088,13 @@
         <v>13</v>
       </c>
       <c r="L162" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="M162" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="N162" s="10" t="s">
-        <v>429</v>
+        <v>689</v>
+      </c>
+      <c r="N162" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -9129,10 +9123,10 @@
         <v>14</v>
       </c>
       <c r="L163" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="M163" s="8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="N163" s="10" t="s">
         <v>425</v>
@@ -9164,10 +9158,10 @@
         <v>14</v>
       </c>
       <c r="L164" s="8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="M164" s="8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N164" s="10" t="s">
         <v>424</v>
@@ -9199,10 +9193,10 @@
         <v>14</v>
       </c>
       <c r="L165" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="M165" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="N165" s="10" t="s">
         <v>424</v>
@@ -9234,10 +9228,10 @@
         <v>14</v>
       </c>
       <c r="L166" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M166" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="N166" s="10" t="s">
         <v>425</v>
@@ -9269,10 +9263,10 @@
         <v>14</v>
       </c>
       <c r="L167" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M167" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="N167" s="10" t="s">
         <v>425</v>
@@ -9304,10 +9298,10 @@
         <v>14</v>
       </c>
       <c r="L168" s="8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M168" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="N168" s="10" t="s">
         <v>426</v>
@@ -9339,10 +9333,10 @@
         <v>14</v>
       </c>
       <c r="L169" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M169" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N169" s="10" t="s">
         <v>426</v>
@@ -9374,10 +9368,10 @@
         <v>14</v>
       </c>
       <c r="L170" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M170" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="N170" s="10" t="s">
         <v>426</v>
@@ -9409,10 +9403,10 @@
         <v>14</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M171" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N171" s="10" t="s">
         <v>426</v>
@@ -9444,10 +9438,10 @@
         <v>14</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M172" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N172" s="10" t="s">
         <v>425</v>
@@ -9479,10 +9473,10 @@
         <v>14</v>
       </c>
       <c r="L173" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M173" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="N173" s="10" t="s">
         <v>425</v>
@@ -9514,10 +9508,10 @@
         <v>14</v>
       </c>
       <c r="L174" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M174" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N174" s="10" t="s">
         <v>32</v>
@@ -9549,10 +9543,10 @@
         <v>14</v>
       </c>
       <c r="L175" s="8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M175" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="N175" s="10" t="s">
         <v>32</v>
@@ -9584,10 +9578,10 @@
         <v>14</v>
       </c>
       <c r="L176" s="8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="M176" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="N176" s="10" t="s">
         <v>425</v>
@@ -9619,10 +9613,10 @@
         <v>14</v>
       </c>
       <c r="L177" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="M177" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="N177" s="10" t="s">
         <v>425</v>
@@ -9654,10 +9648,10 @@
         <v>14</v>
       </c>
       <c r="L178" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M178" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="N178" s="10" t="s">
         <v>426</v>
@@ -9689,10 +9683,10 @@
         <v>14</v>
       </c>
       <c r="L179" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="M179" s="8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="N179" s="10" t="s">
         <v>426</v>
@@ -9724,10 +9718,10 @@
         <v>14</v>
       </c>
       <c r="L180" s="8" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="M180" s="8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="N180" s="10" t="s">
         <v>426</v>
@@ -9759,10 +9753,10 @@
         <v>14</v>
       </c>
       <c r="L181" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="M181" s="8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="N181" s="10" t="s">
         <v>426</v>
@@ -9794,10 +9788,10 @@
         <v>14</v>
       </c>
       <c r="L182" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="M182" s="8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="N182" s="10" t="s">
         <v>426</v>
@@ -9829,13 +9823,13 @@
         <v>14</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="M183" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="N183" s="10" t="s">
-        <v>429</v>
+        <v>731</v>
+      </c>
+      <c r="N183" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -9864,10 +9858,10 @@
         <v>13</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="M184" s="8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N184" s="10" t="s">
         <v>425</v>
@@ -9899,10 +9893,10 @@
         <v>13</v>
       </c>
       <c r="L185" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="M185" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="N185" s="10" t="s">
         <v>425</v>
@@ -9934,10 +9928,10 @@
         <v>13</v>
       </c>
       <c r="L186" s="8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="M186" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="N186" s="10" t="s">
         <v>424</v>
@@ -9969,10 +9963,10 @@
         <v>13</v>
       </c>
       <c r="L187" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="M187" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N187" s="10" t="s">
         <v>424</v>
@@ -10004,10 +9998,10 @@
         <v>13</v>
       </c>
       <c r="L188" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M188" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="N188" s="10" t="s">
         <v>425</v>
@@ -10039,10 +10033,10 @@
         <v>13</v>
       </c>
       <c r="L189" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M189" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="N189" s="10" t="s">
         <v>425</v>
@@ -10074,10 +10068,10 @@
         <v>13</v>
       </c>
       <c r="L190" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M190" s="8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="N190" s="10" t="s">
         <v>426</v>
@@ -10109,10 +10103,10 @@
         <v>13</v>
       </c>
       <c r="L191" s="8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M191" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="N191" s="10" t="s">
         <v>426</v>
@@ -10144,10 +10138,10 @@
         <v>13</v>
       </c>
       <c r="L192" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M192" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="N192" s="10" t="s">
         <v>426</v>
@@ -10179,10 +10173,10 @@
         <v>13</v>
       </c>
       <c r="L193" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M193" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="N193" s="10" t="s">
         <v>426</v>
@@ -10214,10 +10208,10 @@
         <v>13</v>
       </c>
       <c r="L194" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M194" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="N194" s="10" t="s">
         <v>426</v>
@@ -10249,10 +10243,10 @@
         <v>13</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M195" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="N195" s="10" t="s">
         <v>426</v>
@@ -10284,10 +10278,10 @@
         <v>13</v>
       </c>
       <c r="L196" s="8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M196" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="N196" s="10" t="s">
         <v>425</v>
@@ -10319,10 +10313,10 @@
         <v>13</v>
       </c>
       <c r="L197" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M197" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="N197" s="10" t="s">
         <v>425</v>
@@ -10354,10 +10348,10 @@
         <v>13</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M198" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="N198" s="10" t="s">
         <v>32</v>
@@ -10389,10 +10383,10 @@
         <v>13</v>
       </c>
       <c r="L199" s="8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M199" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="N199" s="10" t="s">
         <v>32</v>
@@ -10424,10 +10418,10 @@
         <v>13</v>
       </c>
       <c r="L200" s="8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="M200" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N200" s="10" t="s">
         <v>425</v>
@@ -10459,10 +10453,10 @@
         <v>13</v>
       </c>
       <c r="L201" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="M201" s="8" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N201" s="10" t="s">
         <v>425</v>
@@ -10494,10 +10488,10 @@
         <v>13</v>
       </c>
       <c r="L202" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M202" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N202" s="10" t="s">
         <v>426</v>
@@ -10529,10 +10523,10 @@
         <v>13</v>
       </c>
       <c r="L203" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="M203" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N203" s="10" t="s">
         <v>426</v>
@@ -10564,10 +10558,10 @@
         <v>13</v>
       </c>
       <c r="L204" s="8" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="M204" s="8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="N204" s="10" t="s">
         <v>426</v>
@@ -10599,10 +10593,10 @@
         <v>13</v>
       </c>
       <c r="L205" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="M205" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="N205" s="10" t="s">
         <v>426</v>
@@ -10634,10 +10628,10 @@
         <v>13</v>
       </c>
       <c r="L206" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="M206" s="8" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N206" s="10" t="s">
         <v>426</v>
@@ -10669,10 +10663,10 @@
         <v>13</v>
       </c>
       <c r="L207" s="8" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="M207" s="8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N207" s="10" t="s">
         <v>426</v>
@@ -10704,13 +10698,13 @@
         <v>13</v>
       </c>
       <c r="L208" s="8" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="N208" s="10" t="s">
-        <v>429</v>
+        <v>760</v>
+      </c>
+      <c r="N208" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
@@ -10739,10 +10733,10 @@
         <v>14</v>
       </c>
       <c r="L209" s="8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M209" s="8" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="N209" s="10" t="s">
         <v>424</v>
@@ -10774,10 +10768,10 @@
         <v>14</v>
       </c>
       <c r="L210" s="8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="M210" s="8" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="N210" s="10" t="s">
         <v>424</v>
@@ -10809,10 +10803,10 @@
         <v>14</v>
       </c>
       <c r="L211" s="8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="M211" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N211" s="10" t="s">
         <v>425</v>
@@ -10844,10 +10838,10 @@
         <v>14</v>
       </c>
       <c r="L212" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="M212" s="8" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N212" s="10" t="s">
         <v>425</v>
@@ -10879,10 +10873,10 @@
         <v>14</v>
       </c>
       <c r="L213" s="8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M213" s="8" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="N213" s="10" t="s">
         <v>426</v>
@@ -10914,10 +10908,10 @@
         <v>14</v>
       </c>
       <c r="L214" s="8" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="M214" s="8" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="N214" s="10" t="s">
         <v>426</v>
@@ -10949,10 +10943,10 @@
         <v>14</v>
       </c>
       <c r="L215" s="8" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M215" s="8" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="N215" s="10" t="s">
         <v>426</v>
@@ -10984,10 +10978,10 @@
         <v>14</v>
       </c>
       <c r="L216" s="8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="M216" s="8" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="N216" s="10" t="s">
         <v>32</v>
@@ -11019,10 +11013,10 @@
         <v>14</v>
       </c>
       <c r="L217" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="M217" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="N217" s="10" t="s">
         <v>32</v>
@@ -11054,10 +11048,10 @@
         <v>14</v>
       </c>
       <c r="L218" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="M218" s="8" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N218" s="10" t="s">
         <v>32</v>
@@ -11089,10 +11083,10 @@
         <v>14</v>
       </c>
       <c r="L219" s="8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="M219" s="8" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N219" s="10" t="s">
         <v>32</v>
@@ -11124,10 +11118,10 @@
         <v>14</v>
       </c>
       <c r="L220" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="M220" s="8" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="N220" s="10" t="s">
         <v>32</v>
@@ -11159,10 +11153,10 @@
         <v>14</v>
       </c>
       <c r="L221" s="8" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="M221" s="8" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="N221" s="10" t="s">
         <v>425</v>
@@ -11194,10 +11188,10 @@
         <v>14</v>
       </c>
       <c r="L222" s="8" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="M222" s="8" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="N222" s="10" t="s">
         <v>425</v>
@@ -11229,10 +11223,10 @@
         <v>14</v>
       </c>
       <c r="L223" s="8" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="M223" s="8" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="N223" s="10" t="s">
         <v>425</v>
@@ -11264,10 +11258,10 @@
         <v>14</v>
       </c>
       <c r="L224" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M224" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N224" s="10" t="s">
         <v>425</v>
@@ -11299,10 +11293,10 @@
         <v>14</v>
       </c>
       <c r="L225" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="M225" s="8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N225" s="10" t="s">
         <v>425</v>
@@ -11334,10 +11328,10 @@
         <v>13</v>
       </c>
       <c r="L226" s="8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M226" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="N226" s="10" t="s">
         <v>424</v>
@@ -11369,10 +11363,10 @@
         <v>13</v>
       </c>
       <c r="L227" s="8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="M227" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="N227" s="10" t="s">
         <v>424</v>
@@ -11404,10 +11398,10 @@
         <v>13</v>
       </c>
       <c r="L228" s="8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="M228" s="8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="N228" s="10" t="s">
         <v>425</v>
@@ -11439,10 +11433,10 @@
         <v>13</v>
       </c>
       <c r="L229" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="M229" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="N229" s="10" t="s">
         <v>425</v>
@@ -11474,10 +11468,10 @@
         <v>13</v>
       </c>
       <c r="L230" s="8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M230" s="8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="N230" s="10" t="s">
         <v>426</v>
@@ -11509,10 +11503,10 @@
         <v>13</v>
       </c>
       <c r="L231" s="8" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="M231" s="8" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="N231" s="10" t="s">
         <v>426</v>
@@ -11544,10 +11538,10 @@
         <v>13</v>
       </c>
       <c r="L232" s="8" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M232" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="N232" s="10" t="s">
         <v>426</v>
@@ -11579,10 +11573,10 @@
         <v>13</v>
       </c>
       <c r="L233" s="8" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M233" s="8" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="N233" s="10" t="s">
         <v>426</v>
@@ -11614,10 +11608,10 @@
         <v>13</v>
       </c>
       <c r="L234" s="8" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="M234" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="N234" s="10" t="s">
         <v>426</v>
@@ -11649,10 +11643,10 @@
         <v>13</v>
       </c>
       <c r="L235" s="8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="M235" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N235" s="10" t="s">
         <v>32</v>
@@ -11684,10 +11678,10 @@
         <v>13</v>
       </c>
       <c r="L236" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="M236" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="N236" s="10" t="s">
         <v>32</v>
@@ -11719,10 +11713,10 @@
         <v>13</v>
       </c>
       <c r="L237" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="M237" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N237" s="10" t="s">
         <v>32</v>
@@ -11754,10 +11748,10 @@
         <v>13</v>
       </c>
       <c r="L238" s="8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="M238" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="N238" s="10" t="s">
         <v>32</v>
@@ -11789,10 +11783,10 @@
         <v>13</v>
       </c>
       <c r="L239" s="8" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="M239" s="8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="N239" s="10" t="s">
         <v>32</v>
@@ -11824,10 +11818,10 @@
         <v>13</v>
       </c>
       <c r="L240" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="M240" s="8" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="N240" s="10" t="s">
         <v>32</v>
@@ -11859,10 +11853,10 @@
         <v>13</v>
       </c>
       <c r="L241" s="8" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="M241" s="8" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="N241" s="10" t="s">
         <v>425</v>
@@ -11894,10 +11888,10 @@
         <v>13</v>
       </c>
       <c r="L242" s="8" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="M242" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="N242" s="10" t="s">
         <v>425</v>
@@ -11929,10 +11923,10 @@
         <v>13</v>
       </c>
       <c r="L243" s="8" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="M243" s="8" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="N243" s="10" t="s">
         <v>425</v>
@@ -11964,10 +11958,10 @@
         <v>13</v>
       </c>
       <c r="L244" s="8" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="M244" s="8" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="N244" s="10" t="s">
         <v>425</v>
@@ -11999,10 +11993,10 @@
         <v>13</v>
       </c>
       <c r="L245" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M245" s="8" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N245" s="10" t="s">
         <v>425</v>
@@ -12034,10 +12028,10 @@
         <v>13</v>
       </c>
       <c r="L246" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="M246" s="8" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="N246" s="10" t="s">
         <v>425</v>
@@ -12069,13 +12063,13 @@
         <v>13</v>
       </c>
       <c r="L247" s="8" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="M247" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="N247" s="10" t="s">
-        <v>429</v>
+        <v>821</v>
+      </c>
+      <c r="N247" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
@@ -12104,13 +12098,13 @@
         <v>13</v>
       </c>
       <c r="L248" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="M248" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="N248" s="10" t="s">
-        <v>429</v>
+        <v>823</v>
+      </c>
+      <c r="N248" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
@@ -12139,10 +12133,10 @@
         <v>14</v>
       </c>
       <c r="L249" s="8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M249" s="8" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N249" s="10" t="s">
         <v>425</v>
@@ -12174,10 +12168,10 @@
         <v>14</v>
       </c>
       <c r="L250" s="8" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M250" s="8" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="N250" s="10" t="s">
         <v>425</v>
@@ -12209,10 +12203,10 @@
         <v>14</v>
       </c>
       <c r="L251" s="8" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M251" s="8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="N251" s="10" t="s">
         <v>425</v>
@@ -12244,10 +12238,10 @@
         <v>14</v>
       </c>
       <c r="L252" s="8" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M252" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="N252" s="10" t="s">
         <v>425</v>
@@ -12279,10 +12273,10 @@
         <v>14</v>
       </c>
       <c r="L253" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="M253" s="8" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="N253" s="10" t="s">
         <v>424</v>
@@ -12314,10 +12308,10 @@
         <v>14</v>
       </c>
       <c r="L254" s="8" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="M254" s="8" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="N254" s="10" t="s">
         <v>424</v>
@@ -12349,10 +12343,10 @@
         <v>14</v>
       </c>
       <c r="L255" s="8" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M255" s="8" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="N255" s="10" t="s">
         <v>425</v>
@@ -12384,10 +12378,10 @@
         <v>14</v>
       </c>
       <c r="L256" s="8" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="M256" s="8" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="N256" s="10" t="s">
         <v>425</v>
@@ -12419,10 +12413,10 @@
         <v>14</v>
       </c>
       <c r="L257" s="8" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="M257" s="8" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="N257" s="10" t="s">
         <v>32</v>
@@ -12454,10 +12448,10 @@
         <v>14</v>
       </c>
       <c r="L258" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="M258" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N258" s="10" t="s">
         <v>32</v>
@@ -12489,10 +12483,10 @@
         <v>14</v>
       </c>
       <c r="L259" s="8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="M259" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="N259" s="10" t="s">
         <v>32</v>
@@ -12524,10 +12518,10 @@
         <v>14</v>
       </c>
       <c r="L260" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="M260" s="8" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="N260" s="10" t="s">
         <v>425</v>
@@ -12559,10 +12553,10 @@
         <v>14</v>
       </c>
       <c r="L261" s="8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M261" s="8" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="N261" s="10" t="s">
         <v>425</v>
@@ -12594,10 +12588,10 @@
         <v>14</v>
       </c>
       <c r="L262" s="8" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="M262" s="8" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="N262" s="10" t="s">
         <v>425</v>
@@ -12629,10 +12623,10 @@
         <v>14</v>
       </c>
       <c r="L263" s="8" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="M263" s="8" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="N263" s="10" t="s">
         <v>425</v>
@@ -12664,10 +12658,10 @@
         <v>14</v>
       </c>
       <c r="L264" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="M264" s="8" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="N264" s="10" t="s">
         <v>426</v>
@@ -12699,10 +12693,10 @@
         <v>14</v>
       </c>
       <c r="L265" s="8" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="M265" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="N265" s="10" t="s">
         <v>426</v>
@@ -12734,10 +12728,10 @@
         <v>14</v>
       </c>
       <c r="L266" s="8" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="M266" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="N266" s="10" t="s">
         <v>426</v>
@@ -12769,10 +12763,10 @@
         <v>14</v>
       </c>
       <c r="L267" s="8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="M267" s="8" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="N267" s="10" t="s">
         <v>425</v>
@@ -12804,10 +12798,10 @@
         <v>14</v>
       </c>
       <c r="L268" s="8" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="M268" s="8" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="N268" s="10" t="s">
         <v>425</v>
@@ -12839,13 +12833,13 @@
         <v>14</v>
       </c>
       <c r="L269" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="M269" s="8" t="s">
-        <v>867</v>
-      </c>
-      <c r="N269" s="10" t="s">
-        <v>429</v>
+        <v>865</v>
+      </c>
+      <c r="N269" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
@@ -12874,10 +12868,10 @@
         <v>13</v>
       </c>
       <c r="L270" s="8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M270" s="8" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="N270" s="10" t="s">
         <v>425</v>
@@ -12909,10 +12903,10 @@
         <v>13</v>
       </c>
       <c r="L271" s="8" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M271" s="8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="N271" s="10" t="s">
         <v>425</v>
@@ -12944,10 +12938,10 @@
         <v>13</v>
       </c>
       <c r="L272" s="8" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M272" s="8" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="N272" s="10" t="s">
         <v>425</v>
@@ -12979,10 +12973,10 @@
         <v>13</v>
       </c>
       <c r="L273" s="8" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M273" s="8" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="N273" s="10" t="s">
         <v>425</v>
@@ -13014,10 +13008,10 @@
         <v>13</v>
       </c>
       <c r="L274" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="M274" s="8" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="N274" s="10" t="s">
         <v>424</v>
@@ -13049,10 +13043,10 @@
         <v>13</v>
       </c>
       <c r="L275" s="8" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="M275" s="8" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="N275" s="10" t="s">
         <v>424</v>
@@ -13084,10 +13078,10 @@
         <v>13</v>
       </c>
       <c r="L276" s="8" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M276" s="8" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="N276" s="10" t="s">
         <v>425</v>
@@ -13119,10 +13113,10 @@
         <v>13</v>
       </c>
       <c r="L277" s="8" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="M277" s="8" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="N277" s="10" t="s">
         <v>425</v>
@@ -13154,10 +13148,10 @@
         <v>13</v>
       </c>
       <c r="L278" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M278" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N278" s="10" t="s">
         <v>425</v>
@@ -13189,10 +13183,10 @@
         <v>13</v>
       </c>
       <c r="L279" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="M279" s="8" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="N279" s="10" t="s">
         <v>32</v>
@@ -13224,10 +13218,10 @@
         <v>13</v>
       </c>
       <c r="L280" s="8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="M280" s="8" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="N280" s="10" t="s">
         <v>32</v>
@@ -13259,10 +13253,10 @@
         <v>13</v>
       </c>
       <c r="L281" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="M281" s="8" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="N281" s="10" t="s">
         <v>425</v>
@@ -13294,10 +13288,10 @@
         <v>13</v>
       </c>
       <c r="L282" s="8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M282" s="8" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="N282" s="10" t="s">
         <v>425</v>
@@ -13329,10 +13323,10 @@
         <v>13</v>
       </c>
       <c r="L283" s="8" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="M283" s="8" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="N283" s="10" t="s">
         <v>425</v>
@@ -13364,10 +13358,10 @@
         <v>13</v>
       </c>
       <c r="L284" s="8" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="M284" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="N284" s="10" t="s">
         <v>425</v>
@@ -13399,10 +13393,10 @@
         <v>13</v>
       </c>
       <c r="L285" s="8" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="M285" s="8" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="N285" s="10" t="s">
         <v>426</v>
@@ -13434,10 +13428,10 @@
         <v>13</v>
       </c>
       <c r="L286" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="M286" s="8" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="N286" s="10" t="s">
         <v>426</v>
@@ -13469,10 +13463,10 @@
         <v>13</v>
       </c>
       <c r="L287" s="8" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="M287" s="8" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="N287" s="10" t="s">
         <v>426</v>
@@ -13504,10 +13498,10 @@
         <v>13</v>
       </c>
       <c r="L288" s="8" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="M288" s="8" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="N288" s="10" t="s">
         <v>426</v>
@@ -13539,10 +13533,10 @@
         <v>13</v>
       </c>
       <c r="L289" s="8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="M289" s="8" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="N289" s="10" t="s">
         <v>425</v>
@@ -13574,10 +13568,10 @@
         <v>13</v>
       </c>
       <c r="L290" s="8" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="M290" s="8" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="N290" s="10" t="s">
         <v>425</v>
@@ -13609,13 +13603,13 @@
         <v>13</v>
       </c>
       <c r="L291" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="M291" s="8" t="s">
-        <v>889</v>
-      </c>
-      <c r="N291" s="10" t="s">
-        <v>429</v>
+        <v>887</v>
+      </c>
+      <c r="N291" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">

--- a/Para RAW Timetable.xlsx
+++ b/Para RAW Timetable.xlsx
@@ -2697,8 +2697,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -2766,7 +2767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2802,6 +2803,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3095,8 +3108,8 @@
     <col min="3" max="3" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
@@ -3122,10 +3135,10 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -3166,8 +3179,12 @@
       <c r="E2" s="6">
         <v>45138</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="5" t="s">
         <v>20</v>
@@ -3204,8 +3221,12 @@
       <c r="E3" s="6">
         <v>45138</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="5" t="s">
         <v>20</v>
@@ -3242,8 +3263,12 @@
       <c r="E4" s="6">
         <v>45138</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="5" t="s">
         <v>21</v>
@@ -3280,8 +3305,12 @@
       <c r="E5" s="6">
         <v>45138</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="5" t="s">
         <v>21</v>
@@ -3318,8 +3347,12 @@
       <c r="E6" s="6">
         <v>45138</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="5" t="s">
         <v>22</v>
@@ -3356,8 +3389,12 @@
       <c r="E7" s="6">
         <v>45138</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="5" t="s">
         <v>23</v>
@@ -3394,8 +3431,12 @@
       <c r="E8" s="6">
         <v>45138</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="5" t="s">
         <v>23</v>
@@ -3432,8 +3473,12 @@
       <c r="E9" s="6">
         <v>45138</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="5" t="s">
         <v>24</v>
@@ -3470,8 +3515,12 @@
       <c r="E10" s="6">
         <v>45138</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="5" t="s">
         <v>25</v>
@@ -3508,8 +3557,12 @@
       <c r="E11" s="6">
         <v>45138</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="5" t="s">
         <v>25</v>
@@ -3546,8 +3599,12 @@
       <c r="E12" s="6">
         <v>45138</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="5" t="s">
         <v>26</v>
@@ -3584,8 +3641,12 @@
       <c r="E13" s="6">
         <v>45138</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="5" t="s">
         <v>26</v>
@@ -3622,8 +3683,12 @@
       <c r="E14" s="6">
         <v>45138</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="5" t="s">
         <v>27</v>
@@ -3660,8 +3725,12 @@
       <c r="E15" s="6">
         <v>45138</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="5" t="s">
         <v>27</v>
@@ -3698,8 +3767,12 @@
       <c r="E16" s="6">
         <v>45138</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="5" t="s">
         <v>28</v>
@@ -3736,8 +3809,12 @@
       <c r="E17" s="6">
         <v>45138</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="5" t="s">
         <v>29</v>
@@ -3774,8 +3851,12 @@
       <c r="E18" s="6">
         <v>45138</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="5" t="s">
         <v>30</v>
@@ -3812,8 +3893,12 @@
       <c r="E19" s="6">
         <v>45138</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="5" t="s">
         <v>30</v>
@@ -3850,8 +3935,12 @@
       <c r="E20" s="6">
         <v>45138</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="F20" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="5" t="s">
         <v>31</v>
@@ -3888,8 +3977,12 @@
       <c r="E21" s="6">
         <v>45138</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="5" t="s">
         <v>31</v>
@@ -3926,8 +4019,12 @@
       <c r="E22" s="6">
         <v>45138</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="5" t="s">
         <v>20</v>
@@ -3964,8 +4061,12 @@
       <c r="E23" s="6">
         <v>45138</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="5" t="s">
         <v>20</v>
@@ -4002,8 +4103,12 @@
       <c r="E24" s="6">
         <v>45138</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="F24" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="5" t="s">
         <v>21</v>
@@ -4040,8 +4145,12 @@
       <c r="E25" s="6">
         <v>45138</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="5" t="s">
         <v>21</v>
@@ -4078,8 +4187,12 @@
       <c r="E26" s="6">
         <v>45138</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="5" t="s">
         <v>22</v>
@@ -4116,8 +4229,12 @@
       <c r="E27" s="6">
         <v>45138</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="5" t="s">
         <v>22</v>
@@ -4154,8 +4271,12 @@
       <c r="E28" s="6">
         <v>45138</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="F28" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="5" t="s">
         <v>23</v>
@@ -4192,8 +4313,12 @@
       <c r="E29" s="6">
         <v>45138</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="F29" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="5" t="s">
         <v>23</v>
@@ -4230,8 +4355,12 @@
       <c r="E30" s="6">
         <v>45138</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="F30" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="5" t="s">
         <v>24</v>
@@ -4268,8 +4397,12 @@
       <c r="E31" s="6">
         <v>45138</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="F31" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="5" t="s">
         <v>24</v>
@@ -4306,8 +4439,12 @@
       <c r="E32" s="6">
         <v>45138</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="F32" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="5" t="s">
         <v>25</v>
@@ -4344,8 +4481,12 @@
       <c r="E33" s="6">
         <v>45138</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="F33" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="5" t="s">
         <v>25</v>
@@ -4382,8 +4523,12 @@
       <c r="E34" s="6">
         <v>45138</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="F34" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="5" t="s">
         <v>26</v>
@@ -4420,8 +4565,12 @@
       <c r="E35" s="6">
         <v>45138</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="F35" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="5" t="s">
         <v>26</v>
@@ -4458,8 +4607,12 @@
       <c r="E36" s="6">
         <v>45138</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="F36" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="5" t="s">
         <v>33</v>
@@ -4496,8 +4649,12 @@
       <c r="E37" s="6">
         <v>45138</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="F37" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="5" t="s">
         <v>33</v>
@@ -4534,8 +4691,12 @@
       <c r="E38" s="6">
         <v>45138</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="F38" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G38" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="5" t="s">
         <v>27</v>
@@ -4572,8 +4733,12 @@
       <c r="E39" s="6">
         <v>45138</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="F39" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G39" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="5" t="s">
         <v>27</v>
@@ -4610,8 +4775,12 @@
       <c r="E40" s="6">
         <v>45138</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="F40" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="5" t="s">
         <v>28</v>
@@ -4648,8 +4817,12 @@
       <c r="E41" s="6">
         <v>45138</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="F41" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G41" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="5" t="s">
         <v>28</v>
@@ -4686,8 +4859,12 @@
       <c r="E42" s="6">
         <v>45138</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="F42" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="5" t="s">
         <v>29</v>
@@ -4724,8 +4901,12 @@
       <c r="E43" s="6">
         <v>45138</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="F43" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="5" t="s">
         <v>29</v>
@@ -4762,8 +4943,12 @@
       <c r="E44" s="6">
         <v>45138</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="F44" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G44" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="5" t="s">
         <v>30</v>
@@ -4800,8 +4985,12 @@
       <c r="E45" s="6">
         <v>45138</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="F45" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G45" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="5" t="s">
         <v>30</v>
@@ -4838,8 +5027,12 @@
       <c r="E46" s="6">
         <v>45138</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="F46" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G46" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="5" t="s">
         <v>31</v>
@@ -4876,8 +5069,12 @@
       <c r="E47" s="6">
         <v>45138</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="F47" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G47" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="5" t="s">
         <v>31</v>
@@ -4914,8 +5111,12 @@
       <c r="E48" s="6">
         <v>45139</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="F48" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="5" t="s">
         <v>34</v>
@@ -4952,8 +5153,12 @@
       <c r="E49" s="6">
         <v>45139</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="F49" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G49" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="5" t="s">
         <v>35</v>
@@ -4990,8 +5195,12 @@
       <c r="E50" s="6">
         <v>45139</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="F50" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G50" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="5" t="s">
         <v>35</v>
@@ -5028,8 +5237,12 @@
       <c r="E51" s="6">
         <v>45139</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="F51" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G51" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="5" t="s">
         <v>36</v>
@@ -5066,8 +5279,12 @@
       <c r="E52" s="6">
         <v>45139</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="F52" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G52" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H52" s="7"/>
       <c r="I52" s="5" t="s">
         <v>37</v>
@@ -5104,8 +5321,12 @@
       <c r="E53" s="6">
         <v>45139</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="F53" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G53" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H53" s="7"/>
       <c r="I53" s="5" t="s">
         <v>37</v>
@@ -5142,8 +5363,12 @@
       <c r="E54" s="6">
         <v>45139</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="F54" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G54" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H54" s="7"/>
       <c r="I54" s="5" t="s">
         <v>38</v>
@@ -5180,8 +5405,12 @@
       <c r="E55" s="6">
         <v>45139</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="F55" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G55" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H55" s="7"/>
       <c r="I55" s="5" t="s">
         <v>38</v>
@@ -5218,8 +5447,12 @@
       <c r="E56" s="6">
         <v>45139</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="F56" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G56" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H56" s="7"/>
       <c r="I56" s="5" t="s">
         <v>39</v>
@@ -5256,8 +5489,12 @@
       <c r="E57" s="6">
         <v>45139</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="F57" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G57" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H57" s="7"/>
       <c r="I57" s="5" t="s">
         <v>40</v>
@@ -5294,8 +5531,12 @@
       <c r="E58" s="6">
         <v>45139</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
+      <c r="F58" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G58" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H58" s="7"/>
       <c r="I58" s="5" t="s">
         <v>41</v>
@@ -5332,8 +5573,12 @@
       <c r="E59" s="6">
         <v>45139</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="F59" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G59" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H59" s="7"/>
       <c r="I59" s="5" t="s">
         <v>41</v>
@@ -5370,8 +5615,12 @@
       <c r="E60" s="6">
         <v>45139</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="F60" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H60" s="7"/>
       <c r="I60" s="5" t="s">
         <v>42</v>
@@ -5408,8 +5657,12 @@
       <c r="E61" s="6">
         <v>45139</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="F61" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G61" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H61" s="7"/>
       <c r="I61" s="5" t="s">
         <v>43</v>
@@ -5446,8 +5699,12 @@
       <c r="E62" s="6">
         <v>45139</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="F62" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G62" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H62" s="7"/>
       <c r="I62" s="5" t="s">
         <v>43</v>
@@ -5484,8 +5741,12 @@
       <c r="E63" s="6">
         <v>45139</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="F63" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G63" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H63" s="7"/>
       <c r="I63" s="5" t="s">
         <v>44</v>
@@ -5522,8 +5783,12 @@
       <c r="E64" s="6">
         <v>45139</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="F64" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G64" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H64" s="7"/>
       <c r="I64" s="5" t="s">
         <v>44</v>
@@ -5560,8 +5825,12 @@
       <c r="E65" s="6">
         <v>45139</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
+      <c r="F65" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G65" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H65" s="7"/>
       <c r="I65" s="5" t="s">
         <v>34</v>
@@ -5598,8 +5867,12 @@
       <c r="E66" s="6">
         <v>45139</v>
       </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="F66" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G66" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H66" s="7"/>
       <c r="I66" s="5" t="s">
         <v>34</v>
@@ -5636,8 +5909,12 @@
       <c r="E67" s="6">
         <v>45139</v>
       </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="F67" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G67" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H67" s="7"/>
       <c r="I67" s="5" t="s">
         <v>35</v>
@@ -5674,8 +5951,12 @@
       <c r="E68" s="6">
         <v>45139</v>
       </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="F68" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G68" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H68" s="7"/>
       <c r="I68" s="5" t="s">
         <v>35</v>
@@ -5712,8 +5993,12 @@
       <c r="E69" s="6">
         <v>45139</v>
       </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+      <c r="F69" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G69" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H69" s="7"/>
       <c r="I69" s="5" t="s">
         <v>36</v>
@@ -5750,8 +6035,12 @@
       <c r="E70" s="6">
         <v>45139</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
+      <c r="F70" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G70" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H70" s="7"/>
       <c r="I70" s="5" t="s">
         <v>36</v>
@@ -5788,8 +6077,12 @@
       <c r="E71" s="6">
         <v>45139</v>
       </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
+      <c r="F71" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G71" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H71" s="7"/>
       <c r="I71" s="5" t="s">
         <v>37</v>
@@ -5826,8 +6119,12 @@
       <c r="E72" s="6">
         <v>45139</v>
       </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
+      <c r="F72" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G72" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H72" s="7"/>
       <c r="I72" s="5" t="s">
         <v>37</v>
@@ -5864,8 +6161,12 @@
       <c r="E73" s="6">
         <v>45139</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+      <c r="F73" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G73" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H73" s="7"/>
       <c r="I73" s="5" t="s">
         <v>38</v>
@@ -5902,8 +6203,12 @@
       <c r="E74" s="6">
         <v>45139</v>
       </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="F74" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G74" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H74" s="7"/>
       <c r="I74" s="5" t="s">
         <v>38</v>
@@ -5940,8 +6245,12 @@
       <c r="E75" s="6">
         <v>45139</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
+      <c r="F75" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G75" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H75" s="7"/>
       <c r="I75" s="5" t="s">
         <v>45</v>
@@ -5978,8 +6287,12 @@
       <c r="E76" s="6">
         <v>45139</v>
       </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+      <c r="F76" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G76" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H76" s="7"/>
       <c r="I76" s="5" t="s">
         <v>45</v>
@@ -6016,8 +6329,12 @@
       <c r="E77" s="6">
         <v>45139</v>
       </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+      <c r="F77" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G77" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H77" s="7"/>
       <c r="I77" s="5" t="s">
         <v>39</v>
@@ -6054,8 +6371,12 @@
       <c r="E78" s="6">
         <v>45139</v>
       </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="F78" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G78" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H78" s="7"/>
       <c r="I78" s="5" t="s">
         <v>40</v>
@@ -6092,8 +6413,12 @@
       <c r="E79" s="6">
         <v>45139</v>
       </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+      <c r="F79" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G79" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H79" s="7"/>
       <c r="I79" s="5" t="s">
         <v>40</v>
@@ -6130,8 +6455,12 @@
       <c r="E80" s="6">
         <v>45139</v>
       </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
+      <c r="F80" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G80" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H80" s="7"/>
       <c r="I80" s="5" t="s">
         <v>41</v>
@@ -6168,8 +6497,12 @@
       <c r="E81" s="6">
         <v>45139</v>
       </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
+      <c r="F81" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G81" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H81" s="7"/>
       <c r="I81" s="5" t="s">
         <v>41</v>
@@ -6206,8 +6539,12 @@
       <c r="E82" s="6">
         <v>45139</v>
       </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
+      <c r="F82" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G82" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H82" s="7"/>
       <c r="I82" s="5" t="s">
         <v>42</v>
@@ -6244,8 +6581,12 @@
       <c r="E83" s="6">
         <v>45139</v>
       </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
+      <c r="F83" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G83" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H83" s="7"/>
       <c r="I83" s="5" t="s">
         <v>42</v>
@@ -6282,8 +6623,12 @@
       <c r="E84" s="6">
         <v>45139</v>
       </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
+      <c r="F84" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G84" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H84" s="7"/>
       <c r="I84" s="5" t="s">
         <v>43</v>
@@ -6320,8 +6665,12 @@
       <c r="E85" s="6">
         <v>45139</v>
       </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
+      <c r="F85" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G85" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H85" s="7"/>
       <c r="I85" s="5" t="s">
         <v>43</v>
@@ -6358,8 +6707,12 @@
       <c r="E86" s="6">
         <v>45139</v>
       </c>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
+      <c r="F86" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G86" s="14">
+        <v>0.875</v>
+      </c>
       <c r="H86" s="7"/>
       <c r="I86" s="5" t="s">
         <v>46</v>
@@ -6396,8 +6749,12 @@
       <c r="E87" s="6">
         <v>45140</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
+      <c r="F87" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G87" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H87" s="9"/>
       <c r="I87" s="5" t="s">
         <v>48</v>
@@ -6434,8 +6791,12 @@
       <c r="E88" s="11">
         <v>45140</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
+      <c r="F88" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G88" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H88" s="9"/>
       <c r="I88" s="5" t="s">
         <v>48</v>
@@ -6472,8 +6833,12 @@
       <c r="E89" s="11">
         <v>45140</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="F89" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G89" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H89" s="9"/>
       <c r="I89" s="5" t="s">
         <v>49</v>
@@ -6510,8 +6875,12 @@
       <c r="E90" s="11">
         <v>45140</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+      <c r="F90" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G90" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H90" s="9"/>
       <c r="I90" s="5" t="s">
         <v>50</v>
@@ -6548,8 +6917,12 @@
       <c r="E91" s="11">
         <v>45140</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="F91" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G91" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H91" s="9"/>
       <c r="I91" s="5" t="s">
         <v>50</v>
@@ -6586,8 +6959,12 @@
       <c r="E92" s="11">
         <v>45140</v>
       </c>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="F92" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G92" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H92" s="9"/>
       <c r="I92" s="5" t="s">
         <v>51</v>
@@ -6624,8 +7001,12 @@
       <c r="E93" s="11">
         <v>45140</v>
       </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
+      <c r="F93" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G93" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H93" s="9"/>
       <c r="I93" s="5" t="s">
         <v>51</v>
@@ -6662,8 +7043,12 @@
       <c r="E94" s="11">
         <v>45140</v>
       </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
+      <c r="F94" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G94" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H94" s="9"/>
       <c r="I94" s="5" t="s">
         <v>52</v>
@@ -6700,8 +7085,12 @@
       <c r="E95" s="11">
         <v>45140</v>
       </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
+      <c r="F95" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G95" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H95" s="9"/>
       <c r="I95" s="5" t="s">
         <v>53</v>
@@ -6738,8 +7127,12 @@
       <c r="E96" s="11">
         <v>45140</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
+      <c r="F96" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G96" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H96" s="9"/>
       <c r="I96" s="5" t="s">
         <v>53</v>
@@ -6776,8 +7169,12 @@
       <c r="E97" s="11">
         <v>45140</v>
       </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="F97" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G97" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H97" s="9"/>
       <c r="I97" s="5" t="s">
         <v>54</v>
@@ -6814,8 +7211,12 @@
       <c r="E98" s="11">
         <v>45140</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="F98" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G98" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H98" s="9"/>
       <c r="I98" s="5" t="s">
         <v>55</v>
@@ -6852,8 +7253,12 @@
       <c r="E99" s="11">
         <v>45140</v>
       </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+      <c r="F99" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G99" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H99" s="9"/>
       <c r="I99" s="5" t="s">
         <v>55</v>
@@ -6890,8 +7295,12 @@
       <c r="E100" s="11">
         <v>45140</v>
       </c>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
+      <c r="F100" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G100" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H100" s="9"/>
       <c r="I100" s="5" t="s">
         <v>56</v>
@@ -6928,8 +7337,12 @@
       <c r="E101" s="11">
         <v>45140</v>
       </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
+      <c r="F101" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="G101" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H101" s="9"/>
       <c r="I101" s="5" t="s">
         <v>56</v>
@@ -6966,8 +7379,12 @@
       <c r="E102" s="11">
         <v>45140</v>
       </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
+      <c r="F102" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="G102" s="15">
+        <v>0.875</v>
+      </c>
       <c r="H102" s="9"/>
       <c r="I102" s="5" t="s">
         <v>57</v>
@@ -7004,8 +7421,12 @@
       <c r="E103" s="11">
         <v>45140</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
+      <c r="F103" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="G103" s="15">
+        <v>0.875</v>
+      </c>
       <c r="H103" s="9"/>
       <c r="I103" s="5" t="s">
         <v>58</v>
@@ -7042,8 +7463,12 @@
       <c r="E104" s="11">
         <v>45140</v>
       </c>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
+      <c r="F104" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="G104" s="15">
+        <v>0.875</v>
+      </c>
       <c r="H104" s="9"/>
       <c r="I104" s="5" t="s">
         <v>58</v>
@@ -7080,8 +7505,12 @@
       <c r="E105" s="11">
         <v>45140</v>
       </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
+      <c r="F105" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="G105" s="15">
+        <v>0.875</v>
+      </c>
       <c r="H105" s="9"/>
       <c r="I105" s="5" t="s">
         <v>59</v>
@@ -7118,6 +7547,12 @@
       <c r="E106" s="12">
         <v>45140</v>
       </c>
+      <c r="F106" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G106" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I106" s="10" t="s">
         <v>48</v>
       </c>
@@ -7153,6 +7588,12 @@
       <c r="E107" s="12">
         <v>45140</v>
       </c>
+      <c r="F107" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G107" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I107" s="10" t="s">
         <v>48</v>
       </c>
@@ -7188,6 +7629,12 @@
       <c r="E108" s="12">
         <v>45140</v>
       </c>
+      <c r="F108" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G108" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I108" s="10" t="s">
         <v>49</v>
       </c>
@@ -7223,6 +7670,12 @@
       <c r="E109" s="12">
         <v>45140</v>
       </c>
+      <c r="F109" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G109" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I109" s="10" t="s">
         <v>49</v>
       </c>
@@ -7258,6 +7711,12 @@
       <c r="E110" s="12">
         <v>45140</v>
       </c>
+      <c r="F110" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G110" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I110" s="10" t="s">
         <v>50</v>
       </c>
@@ -7293,6 +7752,12 @@
       <c r="E111" s="12">
         <v>45140</v>
       </c>
+      <c r="F111" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G111" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I111" s="10" t="s">
         <v>50</v>
       </c>
@@ -7328,6 +7793,12 @@
       <c r="E112" s="12">
         <v>45140</v>
       </c>
+      <c r="F112" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G112" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I112" s="10" t="s">
         <v>51</v>
       </c>
@@ -7363,6 +7834,12 @@
       <c r="E113" s="12">
         <v>45140</v>
       </c>
+      <c r="F113" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G113" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I113" s="10" t="s">
         <v>51</v>
       </c>
@@ -7398,6 +7875,12 @@
       <c r="E114" s="12">
         <v>45140</v>
       </c>
+      <c r="F114" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G114" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I114" s="10" t="s">
         <v>52</v>
       </c>
@@ -7433,6 +7916,12 @@
       <c r="E115" s="12">
         <v>45140</v>
       </c>
+      <c r="F115" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G115" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I115" s="10" t="s">
         <v>52</v>
       </c>
@@ -7468,6 +7957,12 @@
       <c r="E116" s="12">
         <v>45140</v>
       </c>
+      <c r="F116" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G116" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I116" s="10" t="s">
         <v>53</v>
       </c>
@@ -7503,6 +7998,12 @@
       <c r="E117" s="12">
         <v>45140</v>
       </c>
+      <c r="F117" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G117" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I117" s="10" t="s">
         <v>53</v>
       </c>
@@ -7538,6 +8039,12 @@
       <c r="E118" s="12">
         <v>45140</v>
       </c>
+      <c r="F118" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G118" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I118" s="10" t="s">
         <v>54</v>
       </c>
@@ -7573,6 +8080,12 @@
       <c r="E119" s="12">
         <v>45140</v>
       </c>
+      <c r="F119" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G119" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I119" s="10" t="s">
         <v>54</v>
       </c>
@@ -7608,6 +8121,12 @@
       <c r="E120" s="12">
         <v>45140</v>
       </c>
+      <c r="F120" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G120" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I120" s="10" t="s">
         <v>60</v>
       </c>
@@ -7643,6 +8162,12 @@
       <c r="E121" s="12">
         <v>45140</v>
       </c>
+      <c r="F121" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G121" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I121" s="10" t="s">
         <v>60</v>
       </c>
@@ -7678,6 +8203,12 @@
       <c r="E122" s="12">
         <v>45140</v>
       </c>
+      <c r="F122" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G122" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I122" s="10" t="s">
         <v>55</v>
       </c>
@@ -7713,6 +8244,12 @@
       <c r="E123" s="12">
         <v>45140</v>
       </c>
+      <c r="F123" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G123" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I123" s="10" t="s">
         <v>55</v>
       </c>
@@ -7748,6 +8285,12 @@
       <c r="E124" s="12">
         <v>45140</v>
       </c>
+      <c r="F124" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G124" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I124" s="10" t="s">
         <v>56</v>
       </c>
@@ -7783,6 +8326,12 @@
       <c r="E125" s="12">
         <v>45140</v>
       </c>
+      <c r="F125" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G125" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I125" s="10" t="s">
         <v>56</v>
       </c>
@@ -7818,6 +8367,12 @@
       <c r="E126" s="12">
         <v>45140</v>
       </c>
+      <c r="F126" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G126" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I126" s="10" t="s">
         <v>61</v>
       </c>
@@ -7853,6 +8408,12 @@
       <c r="E127" s="12">
         <v>45141</v>
       </c>
+      <c r="F127" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G127" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I127" s="10" t="s">
         <v>62</v>
       </c>
@@ -7888,6 +8449,12 @@
       <c r="E128" s="12">
         <v>45141</v>
       </c>
+      <c r="F128" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G128" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I128" s="10" t="s">
         <v>62</v>
       </c>
@@ -7923,6 +8490,12 @@
       <c r="E129" s="12">
         <v>45141</v>
       </c>
+      <c r="F129" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G129" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I129" s="10" t="s">
         <v>63</v>
       </c>
@@ -7958,6 +8531,12 @@
       <c r="E130" s="12">
         <v>45141</v>
       </c>
+      <c r="F130" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G130" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I130" s="10" t="s">
         <v>64</v>
       </c>
@@ -7993,6 +8572,12 @@
       <c r="E131" s="12">
         <v>45141</v>
       </c>
+      <c r="F131" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G131" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I131" s="10" t="s">
         <v>65</v>
       </c>
@@ -8028,6 +8613,12 @@
       <c r="E132" s="12">
         <v>45141</v>
       </c>
+      <c r="F132" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G132" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I132" s="10" t="s">
         <v>65</v>
       </c>
@@ -8063,6 +8654,12 @@
       <c r="E133" s="12">
         <v>45141</v>
       </c>
+      <c r="F133" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G133" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I133" s="10" t="s">
         <v>66</v>
       </c>
@@ -8098,6 +8695,12 @@
       <c r="E134" s="12">
         <v>45141</v>
       </c>
+      <c r="F134" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G134" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I134" s="10" t="s">
         <v>67</v>
       </c>
@@ -8133,6 +8736,12 @@
       <c r="E135" s="12">
         <v>45141</v>
       </c>
+      <c r="F135" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G135" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I135" s="10" t="s">
         <v>67</v>
       </c>
@@ -8168,6 +8777,12 @@
       <c r="E136" s="12">
         <v>45141</v>
       </c>
+      <c r="F136" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G136" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I136" s="10" t="s">
         <v>68</v>
       </c>
@@ -8203,6 +8818,12 @@
       <c r="E137" s="12">
         <v>45141</v>
       </c>
+      <c r="F137" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G137" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I137" s="10" t="s">
         <v>69</v>
       </c>
@@ -8238,6 +8859,12 @@
       <c r="E138" s="12">
         <v>45141</v>
       </c>
+      <c r="F138" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G138" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I138" s="10" t="s">
         <v>69</v>
       </c>
@@ -8273,6 +8900,12 @@
       <c r="E139" s="12">
         <v>45141</v>
       </c>
+      <c r="F139" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G139" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I139" s="10" t="s">
         <v>70</v>
       </c>
@@ -8308,6 +8941,12 @@
       <c r="E140" s="12">
         <v>45141</v>
       </c>
+      <c r="F140" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G140" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I140" s="10" t="s">
         <v>70</v>
       </c>
@@ -8343,6 +8982,12 @@
       <c r="E141" s="12">
         <v>45141</v>
       </c>
+      <c r="F141" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G141" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I141" s="10" t="s">
         <v>71</v>
       </c>
@@ -8378,6 +9023,12 @@
       <c r="E142" s="12">
         <v>45141</v>
       </c>
+      <c r="F142" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G142" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I142" s="10" t="s">
         <v>71</v>
       </c>
@@ -8413,6 +9064,12 @@
       <c r="E143" s="12">
         <v>45141</v>
       </c>
+      <c r="F143" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G143" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I143" s="10" t="s">
         <v>62</v>
       </c>
@@ -8448,6 +9105,12 @@
       <c r="E144" s="12">
         <v>45141</v>
       </c>
+      <c r="F144" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G144" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I144" s="10" t="s">
         <v>62</v>
       </c>
@@ -8483,6 +9146,12 @@
       <c r="E145" s="12">
         <v>45141</v>
       </c>
+      <c r="F145" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G145" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I145" s="10" t="s">
         <v>63</v>
       </c>
@@ -8518,6 +9187,12 @@
       <c r="E146" s="12">
         <v>45141</v>
       </c>
+      <c r="F146" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G146" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I146" s="10" t="s">
         <v>63</v>
       </c>
@@ -8553,6 +9228,12 @@
       <c r="E147" s="12">
         <v>45141</v>
       </c>
+      <c r="F147" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G147" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I147" s="10" t="s">
         <v>64</v>
       </c>
@@ -8588,6 +9269,12 @@
       <c r="E148" s="12">
         <v>45141</v>
       </c>
+      <c r="F148" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G148" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I148" s="10" t="s">
         <v>64</v>
       </c>
@@ -8623,6 +9310,12 @@
       <c r="E149" s="12">
         <v>45141</v>
       </c>
+      <c r="F149" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G149" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I149" s="10" t="s">
         <v>65</v>
       </c>
@@ -8658,6 +9351,12 @@
       <c r="E150" s="12">
         <v>45141</v>
       </c>
+      <c r="F150" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G150" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I150" s="10" t="s">
         <v>65</v>
       </c>
@@ -8693,6 +9392,12 @@
       <c r="E151" s="12">
         <v>45141</v>
       </c>
+      <c r="F151" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G151" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I151" s="10" t="s">
         <v>66</v>
       </c>
@@ -8728,6 +9433,12 @@
       <c r="E152" s="12">
         <v>45141</v>
       </c>
+      <c r="F152" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G152" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I152" s="10" t="s">
         <v>66</v>
       </c>
@@ -8763,6 +9474,12 @@
       <c r="E153" s="12">
         <v>45141</v>
       </c>
+      <c r="F153" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G153" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I153" s="10" t="s">
         <v>72</v>
       </c>
@@ -8798,6 +9515,12 @@
       <c r="E154" s="12">
         <v>45141</v>
       </c>
+      <c r="F154" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G154" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I154" s="10" t="s">
         <v>73</v>
       </c>
@@ -8833,6 +9556,12 @@
       <c r="E155" s="12">
         <v>45141</v>
       </c>
+      <c r="F155" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G155" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I155" s="10" t="s">
         <v>67</v>
       </c>
@@ -8868,6 +9597,12 @@
       <c r="E156" s="12">
         <v>45141</v>
       </c>
+      <c r="F156" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G156" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I156" s="10" t="s">
         <v>67</v>
       </c>
@@ -8903,6 +9638,12 @@
       <c r="E157" s="12">
         <v>45141</v>
       </c>
+      <c r="F157" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G157" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I157" s="10" t="s">
         <v>68</v>
       </c>
@@ -8938,6 +9679,12 @@
       <c r="E158" s="12">
         <v>45141</v>
       </c>
+      <c r="F158" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G158" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I158" s="10" t="s">
         <v>68</v>
       </c>
@@ -8973,6 +9720,12 @@
       <c r="E159" s="12">
         <v>45141</v>
       </c>
+      <c r="F159" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G159" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I159" s="10" t="s">
         <v>69</v>
       </c>
@@ -9008,6 +9761,12 @@
       <c r="E160" s="12">
         <v>45141</v>
       </c>
+      <c r="F160" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G160" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I160" s="10" t="s">
         <v>69</v>
       </c>
@@ -9043,6 +9802,12 @@
       <c r="E161" s="12">
         <v>45141</v>
       </c>
+      <c r="F161" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G161" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I161" s="10" t="s">
         <v>74</v>
       </c>
@@ -9078,6 +9843,12 @@
       <c r="E162" s="12">
         <v>45141</v>
       </c>
+      <c r="F162" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G162" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I162" s="10" t="s">
         <v>75</v>
       </c>
@@ -9113,6 +9884,12 @@
       <c r="E163" s="12">
         <v>45142</v>
       </c>
+      <c r="F163" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G163" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I163" s="10" t="s">
         <v>76</v>
       </c>
@@ -9148,6 +9925,12 @@
       <c r="E164" s="12">
         <v>45142</v>
       </c>
+      <c r="F164" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G164" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I164" s="10" t="s">
         <v>77</v>
       </c>
@@ -9183,6 +9966,12 @@
       <c r="E165" s="12">
         <v>45142</v>
       </c>
+      <c r="F165" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G165" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I165" s="10" t="s">
         <v>77</v>
       </c>
@@ -9218,6 +10007,12 @@
       <c r="E166" s="12">
         <v>45142</v>
       </c>
+      <c r="F166" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G166" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I166" s="10" t="s">
         <v>78</v>
       </c>
@@ -9253,6 +10048,12 @@
       <c r="E167" s="12">
         <v>45142</v>
       </c>
+      <c r="F167" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G167" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I167" s="10" t="s">
         <v>78</v>
       </c>
@@ -9288,6 +10089,12 @@
       <c r="E168" s="12">
         <v>45142</v>
       </c>
+      <c r="F168" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G168" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I168" s="10" t="s">
         <v>79</v>
       </c>
@@ -9323,6 +10130,12 @@
       <c r="E169" s="12">
         <v>45142</v>
       </c>
+      <c r="F169" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G169" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I169" s="10" t="s">
         <v>80</v>
       </c>
@@ -9358,6 +10171,12 @@
       <c r="E170" s="12">
         <v>45142</v>
       </c>
+      <c r="F170" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G170" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I170" s="10" t="s">
         <v>80</v>
       </c>
@@ -9393,6 +10212,12 @@
       <c r="E171" s="12">
         <v>45142</v>
       </c>
+      <c r="F171" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G171" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I171" s="10" t="s">
         <v>81</v>
       </c>
@@ -9428,6 +10253,12 @@
       <c r="E172" s="12">
         <v>45142</v>
       </c>
+      <c r="F172" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G172" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I172" s="10" t="s">
         <v>82</v>
       </c>
@@ -9463,6 +10294,12 @@
       <c r="E173" s="12">
         <v>45142</v>
       </c>
+      <c r="F173" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G173" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I173" s="10" t="s">
         <v>82</v>
       </c>
@@ -9498,6 +10335,12 @@
       <c r="E174" s="12">
         <v>45142</v>
       </c>
+      <c r="F174" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G174" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I174" s="10" t="s">
         <v>83</v>
       </c>
@@ -9533,6 +10376,12 @@
       <c r="E175" s="12">
         <v>45142</v>
       </c>
+      <c r="F175" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G175" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I175" s="10" t="s">
         <v>83</v>
       </c>
@@ -9568,6 +10417,12 @@
       <c r="E176" s="12">
         <v>45142</v>
       </c>
+      <c r="F176" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G176" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I176" s="10" t="s">
         <v>84</v>
       </c>
@@ -9603,6 +10458,12 @@
       <c r="E177" s="12">
         <v>45142</v>
       </c>
+      <c r="F177" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G177" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I177" s="10" t="s">
         <v>84</v>
       </c>
@@ -9638,6 +10499,12 @@
       <c r="E178" s="12">
         <v>45142</v>
       </c>
+      <c r="F178" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G178" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I178" s="10" t="s">
         <v>85</v>
       </c>
@@ -9673,6 +10540,12 @@
       <c r="E179" s="12">
         <v>45142</v>
       </c>
+      <c r="F179" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G179" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I179" s="10" t="s">
         <v>85</v>
       </c>
@@ -9708,6 +10581,12 @@
       <c r="E180" s="12">
         <v>45142</v>
       </c>
+      <c r="F180" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G180" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I180" s="10" t="s">
         <v>86</v>
       </c>
@@ -9743,6 +10622,12 @@
       <c r="E181" s="12">
         <v>45142</v>
       </c>
+      <c r="F181" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G181" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I181" s="10" t="s">
         <v>86</v>
       </c>
@@ -9778,6 +10663,12 @@
       <c r="E182" s="12">
         <v>45142</v>
       </c>
+      <c r="F182" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G182" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I182" s="10" t="s">
         <v>87</v>
       </c>
@@ -9813,6 +10704,12 @@
       <c r="E183" s="12">
         <v>45142</v>
       </c>
+      <c r="F183" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G183" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I183" s="10" t="s">
         <v>88</v>
       </c>
@@ -9848,6 +10745,12 @@
       <c r="E184" s="12">
         <v>45142</v>
       </c>
+      <c r="F184" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G184" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I184" s="10" t="s">
         <v>76</v>
       </c>
@@ -9883,6 +10786,12 @@
       <c r="E185" s="12">
         <v>45142</v>
       </c>
+      <c r="F185" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G185" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I185" s="10" t="s">
         <v>76</v>
       </c>
@@ -9918,6 +10827,12 @@
       <c r="E186" s="12">
         <v>45142</v>
       </c>
+      <c r="F186" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G186" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I186" s="10" t="s">
         <v>77</v>
       </c>
@@ -9953,6 +10868,12 @@
       <c r="E187" s="12">
         <v>45142</v>
       </c>
+      <c r="F187" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G187" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I187" s="10" t="s">
         <v>77</v>
       </c>
@@ -9988,6 +10909,12 @@
       <c r="E188" s="12">
         <v>45142</v>
       </c>
+      <c r="F188" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G188" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I188" s="10" t="s">
         <v>78</v>
       </c>
@@ -10023,6 +10950,12 @@
       <c r="E189" s="12">
         <v>45142</v>
       </c>
+      <c r="F189" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G189" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I189" s="10" t="s">
         <v>78</v>
       </c>
@@ -10058,6 +10991,12 @@
       <c r="E190" s="12">
         <v>45142</v>
       </c>
+      <c r="F190" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G190" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I190" s="10" t="s">
         <v>79</v>
       </c>
@@ -10093,6 +11032,12 @@
       <c r="E191" s="12">
         <v>45142</v>
       </c>
+      <c r="F191" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G191" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I191" s="10" t="s">
         <v>79</v>
       </c>
@@ -10128,6 +11073,12 @@
       <c r="E192" s="12">
         <v>45142</v>
       </c>
+      <c r="F192" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G192" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I192" s="10" t="s">
         <v>80</v>
       </c>
@@ -10163,6 +11114,12 @@
       <c r="E193" s="12">
         <v>45142</v>
       </c>
+      <c r="F193" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G193" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I193" s="10" t="s">
         <v>80</v>
       </c>
@@ -10198,6 +11155,12 @@
       <c r="E194" s="12">
         <v>45142</v>
       </c>
+      <c r="F194" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G194" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I194" s="10" t="s">
         <v>81</v>
       </c>
@@ -10233,6 +11196,12 @@
       <c r="E195" s="12">
         <v>45142</v>
       </c>
+      <c r="F195" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G195" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I195" s="10" t="s">
         <v>81</v>
       </c>
@@ -10268,6 +11237,12 @@
       <c r="E196" s="12">
         <v>45142</v>
       </c>
+      <c r="F196" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G196" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I196" s="10" t="s">
         <v>82</v>
       </c>
@@ -10303,6 +11278,12 @@
       <c r="E197" s="12">
         <v>45142</v>
       </c>
+      <c r="F197" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G197" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I197" s="10" t="s">
         <v>82</v>
       </c>
@@ -10338,6 +11319,12 @@
       <c r="E198" s="12">
         <v>45142</v>
       </c>
+      <c r="F198" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G198" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I198" s="10" t="s">
         <v>83</v>
       </c>
@@ -10373,6 +11360,12 @@
       <c r="E199" s="12">
         <v>45142</v>
       </c>
+      <c r="F199" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G199" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I199" s="10" t="s">
         <v>83</v>
       </c>
@@ -10408,6 +11401,12 @@
       <c r="E200" s="12">
         <v>45142</v>
       </c>
+      <c r="F200" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G200" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I200" s="10" t="s">
         <v>84</v>
       </c>
@@ -10443,6 +11442,12 @@
       <c r="E201" s="12">
         <v>45142</v>
       </c>
+      <c r="F201" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G201" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I201" s="10" t="s">
         <v>84</v>
       </c>
@@ -10478,6 +11483,12 @@
       <c r="E202" s="12">
         <v>45142</v>
       </c>
+      <c r="F202" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G202" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I202" s="10" t="s">
         <v>85</v>
       </c>
@@ -10513,6 +11524,12 @@
       <c r="E203" s="12">
         <v>45142</v>
       </c>
+      <c r="F203" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G203" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I203" s="10" t="s">
         <v>85</v>
       </c>
@@ -10548,6 +11565,12 @@
       <c r="E204" s="12">
         <v>45142</v>
       </c>
+      <c r="F204" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G204" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I204" s="10" t="s">
         <v>86</v>
       </c>
@@ -10583,6 +11606,12 @@
       <c r="E205" s="12">
         <v>45142</v>
       </c>
+      <c r="F205" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G205" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I205" s="10" t="s">
         <v>86</v>
       </c>
@@ -10618,6 +11647,12 @@
       <c r="E206" s="12">
         <v>45142</v>
       </c>
+      <c r="F206" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G206" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I206" s="10" t="s">
         <v>87</v>
       </c>
@@ -10653,6 +11688,12 @@
       <c r="E207" s="12">
         <v>45142</v>
       </c>
+      <c r="F207" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G207" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I207" s="10" t="s">
         <v>87</v>
       </c>
@@ -10688,6 +11729,12 @@
       <c r="E208" s="12">
         <v>45142</v>
       </c>
+      <c r="F208" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G208" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I208" s="10" t="s">
         <v>88</v>
       </c>
@@ -10723,6 +11770,12 @@
       <c r="E209" s="12">
         <v>45143</v>
       </c>
+      <c r="F209" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G209" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I209" s="10" t="s">
         <v>89</v>
       </c>
@@ -10758,6 +11811,12 @@
       <c r="E210" s="12">
         <v>45143</v>
       </c>
+      <c r="F210" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G210" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I210" s="10" t="s">
         <v>89</v>
       </c>
@@ -10793,6 +11852,12 @@
       <c r="E211" s="12">
         <v>45143</v>
       </c>
+      <c r="F211" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G211" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I211" s="10" t="s">
         <v>90</v>
       </c>
@@ -10828,6 +11893,12 @@
       <c r="E212" s="12">
         <v>45143</v>
       </c>
+      <c r="F212" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G212" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I212" s="10" t="s">
         <v>90</v>
       </c>
@@ -10863,6 +11934,12 @@
       <c r="E213" s="12">
         <v>45143</v>
       </c>
+      <c r="F213" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G213" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I213" s="10" t="s">
         <v>91</v>
       </c>
@@ -10898,6 +11975,12 @@
       <c r="E214" s="12">
         <v>45143</v>
       </c>
+      <c r="F214" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G214" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I214" s="10" t="s">
         <v>91</v>
       </c>
@@ -10933,6 +12016,12 @@
       <c r="E215" s="12">
         <v>45143</v>
       </c>
+      <c r="F215" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G215" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I215" s="10" t="s">
         <v>92</v>
       </c>
@@ -10968,6 +12057,12 @@
       <c r="E216" s="12">
         <v>45143</v>
       </c>
+      <c r="F216" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G216" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I216" s="10" t="s">
         <v>93</v>
       </c>
@@ -11003,6 +12098,12 @@
       <c r="E217" s="12">
         <v>45143</v>
       </c>
+      <c r="F217" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G217" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I217" s="10" t="s">
         <v>93</v>
       </c>
@@ -11038,6 +12139,12 @@
       <c r="E218" s="12">
         <v>45143</v>
       </c>
+      <c r="F218" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G218" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I218" s="10" t="s">
         <v>94</v>
       </c>
@@ -11073,6 +12180,12 @@
       <c r="E219" s="12">
         <v>45143</v>
       </c>
+      <c r="F219" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G219" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I219" s="10" t="s">
         <v>94</v>
       </c>
@@ -11108,6 +12221,12 @@
       <c r="E220" s="12">
         <v>45143</v>
       </c>
+      <c r="F220" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G220" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I220" s="10" t="s">
         <v>95</v>
       </c>
@@ -11143,6 +12262,12 @@
       <c r="E221" s="12">
         <v>45143</v>
       </c>
+      <c r="F221" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G221" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I221" s="10" t="s">
         <v>96</v>
       </c>
@@ -11178,6 +12303,12 @@
       <c r="E222" s="12">
         <v>45143</v>
       </c>
+      <c r="F222" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G222" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I222" s="10" t="s">
         <v>96</v>
       </c>
@@ -11213,6 +12344,12 @@
       <c r="E223" s="12">
         <v>45143</v>
       </c>
+      <c r="F223" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G223" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I223" s="10" t="s">
         <v>97</v>
       </c>
@@ -11248,6 +12385,12 @@
       <c r="E224" s="12">
         <v>45143</v>
       </c>
+      <c r="F224" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G224" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I224" s="10" t="s">
         <v>98</v>
       </c>
@@ -11283,6 +12426,12 @@
       <c r="E225" s="12">
         <v>45143</v>
       </c>
+      <c r="F225" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G225" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I225" s="10" t="s">
         <v>98</v>
       </c>
@@ -11318,6 +12467,12 @@
       <c r="E226" s="12">
         <v>45143</v>
       </c>
+      <c r="F226" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G226" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I226" s="10" t="s">
         <v>89</v>
       </c>
@@ -11353,6 +12508,12 @@
       <c r="E227" s="12">
         <v>45143</v>
       </c>
+      <c r="F227" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G227" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I227" s="10" t="s">
         <v>89</v>
       </c>
@@ -11388,6 +12549,12 @@
       <c r="E228" s="12">
         <v>45143</v>
       </c>
+      <c r="F228" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G228" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I228" s="10" t="s">
         <v>90</v>
       </c>
@@ -11423,6 +12590,12 @@
       <c r="E229" s="12">
         <v>45143</v>
       </c>
+      <c r="F229" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G229" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I229" s="10" t="s">
         <v>90</v>
       </c>
@@ -11458,6 +12631,12 @@
       <c r="E230" s="12">
         <v>45143</v>
       </c>
+      <c r="F230" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G230" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I230" s="10" t="s">
         <v>91</v>
       </c>
@@ -11493,6 +12672,12 @@
       <c r="E231" s="12">
         <v>45143</v>
       </c>
+      <c r="F231" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G231" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I231" s="10" t="s">
         <v>91</v>
       </c>
@@ -11528,6 +12713,12 @@
       <c r="E232" s="12">
         <v>45143</v>
       </c>
+      <c r="F232" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G232" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I232" s="10" t="s">
         <v>92</v>
       </c>
@@ -11563,6 +12754,12 @@
       <c r="E233" s="12">
         <v>45143</v>
       </c>
+      <c r="F233" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G233" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I233" s="10" t="s">
         <v>92</v>
       </c>
@@ -11598,6 +12795,12 @@
       <c r="E234" s="12">
         <v>45143</v>
       </c>
+      <c r="F234" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G234" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I234" s="10" t="s">
         <v>99</v>
       </c>
@@ -11633,6 +12836,12 @@
       <c r="E235" s="12">
         <v>45143</v>
       </c>
+      <c r="F235" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G235" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I235" s="10" t="s">
         <v>93</v>
       </c>
@@ -11668,6 +12877,12 @@
       <c r="E236" s="12">
         <v>45143</v>
       </c>
+      <c r="F236" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G236" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I236" s="10" t="s">
         <v>93</v>
       </c>
@@ -11703,6 +12918,12 @@
       <c r="E237" s="12">
         <v>45143</v>
       </c>
+      <c r="F237" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G237" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I237" s="10" t="s">
         <v>94</v>
       </c>
@@ -11738,6 +12959,12 @@
       <c r="E238" s="12">
         <v>45143</v>
       </c>
+      <c r="F238" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G238" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I238" s="10" t="s">
         <v>94</v>
       </c>
@@ -11773,6 +13000,12 @@
       <c r="E239" s="12">
         <v>45143</v>
       </c>
+      <c r="F239" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G239" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I239" s="10" t="s">
         <v>95</v>
       </c>
@@ -11808,6 +13041,12 @@
       <c r="E240" s="12">
         <v>45143</v>
       </c>
+      <c r="F240" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G240" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I240" s="10" t="s">
         <v>95</v>
       </c>
@@ -11843,6 +13082,12 @@
       <c r="E241" s="12">
         <v>45143</v>
       </c>
+      <c r="F241" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G241" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I241" s="10" t="s">
         <v>96</v>
       </c>
@@ -11878,6 +13123,12 @@
       <c r="E242" s="12">
         <v>45143</v>
       </c>
+      <c r="F242" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G242" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I242" s="10" t="s">
         <v>96</v>
       </c>
@@ -11913,6 +13164,12 @@
       <c r="E243" s="12">
         <v>45143</v>
       </c>
+      <c r="F243" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G243" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I243" s="10" t="s">
         <v>97</v>
       </c>
@@ -11948,6 +13205,12 @@
       <c r="E244" s="12">
         <v>45143</v>
       </c>
+      <c r="F244" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G244" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I244" s="10" t="s">
         <v>97</v>
       </c>
@@ -11983,6 +13246,12 @@
       <c r="E245" s="12">
         <v>45143</v>
       </c>
+      <c r="F245" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G245" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I245" s="10" t="s">
         <v>98</v>
       </c>
@@ -12018,6 +13287,12 @@
       <c r="E246" s="12">
         <v>45143</v>
       </c>
+      <c r="F246" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G246" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I246" s="10" t="s">
         <v>98</v>
       </c>
@@ -12053,6 +13328,12 @@
       <c r="E247" s="12">
         <v>45143</v>
       </c>
+      <c r="F247" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G247" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I247" s="10" t="s">
         <v>100</v>
       </c>
@@ -12088,6 +13369,12 @@
       <c r="E248" s="12">
         <v>45143</v>
       </c>
+      <c r="F248" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G248" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I248" s="10" t="s">
         <v>101</v>
       </c>
@@ -12123,6 +13410,12 @@
       <c r="E249" s="12">
         <v>45144</v>
       </c>
+      <c r="F249" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G249" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I249" s="10" t="s">
         <v>102</v>
       </c>
@@ -12158,6 +13451,12 @@
       <c r="E250" s="12">
         <v>45144</v>
       </c>
+      <c r="F250" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G250" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I250" s="10" t="s">
         <v>102</v>
       </c>
@@ -12193,6 +13492,12 @@
       <c r="E251" s="12">
         <v>45144</v>
       </c>
+      <c r="F251" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G251" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I251" s="10" t="s">
         <v>103</v>
       </c>
@@ -12228,6 +13533,12 @@
       <c r="E252" s="12">
         <v>45144</v>
       </c>
+      <c r="F252" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G252" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I252" s="10" t="s">
         <v>103</v>
       </c>
@@ -12263,6 +13574,12 @@
       <c r="E253" s="12">
         <v>45144</v>
       </c>
+      <c r="F253" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G253" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I253" s="10" t="s">
         <v>104</v>
       </c>
@@ -12298,6 +13615,12 @@
       <c r="E254" s="12">
         <v>45144</v>
       </c>
+      <c r="F254" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G254" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I254" s="10" t="s">
         <v>104</v>
       </c>
@@ -12333,6 +13656,12 @@
       <c r="E255" s="12">
         <v>45144</v>
       </c>
+      <c r="F255" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G255" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I255" s="10" t="s">
         <v>105</v>
       </c>
@@ -12368,6 +13697,12 @@
       <c r="E256" s="12">
         <v>45144</v>
       </c>
+      <c r="F256" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G256" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I256" s="10" t="s">
         <v>105</v>
       </c>
@@ -12403,6 +13738,12 @@
       <c r="E257" s="12">
         <v>45144</v>
       </c>
+      <c r="F257" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G257" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I257" s="10" t="s">
         <v>106</v>
       </c>
@@ -12438,6 +13779,12 @@
       <c r="E258" s="12">
         <v>45144</v>
       </c>
+      <c r="F258" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G258" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I258" s="10" t="s">
         <v>107</v>
       </c>
@@ -12473,6 +13820,12 @@
       <c r="E259" s="12">
         <v>45144</v>
       </c>
+      <c r="F259" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G259" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I259" s="10" t="s">
         <v>107</v>
       </c>
@@ -12508,6 +13861,12 @@
       <c r="E260" s="12">
         <v>45144</v>
       </c>
+      <c r="F260" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G260" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I260" s="10" t="s">
         <v>108</v>
       </c>
@@ -12543,6 +13902,12 @@
       <c r="E261" s="12">
         <v>45144</v>
       </c>
+      <c r="F261" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G261" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I261" s="10" t="s">
         <v>108</v>
       </c>
@@ -12578,6 +13943,12 @@
       <c r="E262" s="12">
         <v>45144</v>
       </c>
+      <c r="F262" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G262" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I262" s="10" t="s">
         <v>109</v>
       </c>
@@ -12613,6 +13984,12 @@
       <c r="E263" s="12">
         <v>45144</v>
       </c>
+      <c r="F263" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G263" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I263" s="10" t="s">
         <v>109</v>
       </c>
@@ -12648,6 +14025,12 @@
       <c r="E264" s="12">
         <v>45144</v>
       </c>
+      <c r="F264" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G264" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I264" s="10" t="s">
         <v>110</v>
       </c>
@@ -12683,6 +14066,12 @@
       <c r="E265" s="12">
         <v>45144</v>
       </c>
+      <c r="F265" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G265" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I265" s="10" t="s">
         <v>111</v>
       </c>
@@ -12718,6 +14107,12 @@
       <c r="E266" s="12">
         <v>45144</v>
       </c>
+      <c r="F266" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G266" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I266" s="10" t="s">
         <v>111</v>
       </c>
@@ -12753,6 +14148,12 @@
       <c r="E267" s="12">
         <v>45144</v>
       </c>
+      <c r="F267" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G267" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I267" s="10" t="s">
         <v>112</v>
       </c>
@@ -12788,6 +14189,12 @@
       <c r="E268" s="12">
         <v>45144</v>
       </c>
+      <c r="F268" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G268" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I268" s="10" t="s">
         <v>112</v>
       </c>
@@ -12822,6 +14229,12 @@
       </c>
       <c r="E269" s="12">
         <v>45144</v>
+      </c>
+      <c r="F269" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="G269" s="16">
+        <v>0.5</v>
       </c>
       <c r="I269" s="10" t="s">
         <v>113</v>
@@ -12858,6 +14271,12 @@
       <c r="E270" s="12">
         <v>45144</v>
       </c>
+      <c r="F270" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G270" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I270" s="10" t="s">
         <v>102</v>
       </c>
@@ -12893,6 +14312,12 @@
       <c r="E271" s="12">
         <v>45144</v>
       </c>
+      <c r="F271" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G271" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I271" s="10" t="s">
         <v>102</v>
       </c>
@@ -12928,6 +14353,12 @@
       <c r="E272" s="12">
         <v>45144</v>
       </c>
+      <c r="F272" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G272" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I272" s="10" t="s">
         <v>103</v>
       </c>
@@ -12963,6 +14394,12 @@
       <c r="E273" s="12">
         <v>45144</v>
       </c>
+      <c r="F273" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G273" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I273" s="10" t="s">
         <v>103</v>
       </c>
@@ -12998,6 +14435,12 @@
       <c r="E274" s="12">
         <v>45144</v>
       </c>
+      <c r="F274" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G274" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I274" s="10" t="s">
         <v>104</v>
       </c>
@@ -13033,6 +14476,12 @@
       <c r="E275" s="12">
         <v>45144</v>
       </c>
+      <c r="F275" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G275" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I275" s="10" t="s">
         <v>104</v>
       </c>
@@ -13068,6 +14517,12 @@
       <c r="E276" s="12">
         <v>45144</v>
       </c>
+      <c r="F276" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G276" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I276" s="10" t="s">
         <v>105</v>
       </c>
@@ -13103,6 +14558,12 @@
       <c r="E277" s="12">
         <v>45144</v>
       </c>
+      <c r="F277" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G277" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I277" s="10" t="s">
         <v>105</v>
       </c>
@@ -13138,6 +14599,12 @@
       <c r="E278" s="12">
         <v>45144</v>
       </c>
+      <c r="F278" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G278" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I278" s="10" t="s">
         <v>106</v>
       </c>
@@ -13173,6 +14640,12 @@
       <c r="E279" s="12">
         <v>45144</v>
       </c>
+      <c r="F279" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G279" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I279" s="10" t="s">
         <v>107</v>
       </c>
@@ -13208,6 +14681,12 @@
       <c r="E280" s="12">
         <v>45144</v>
       </c>
+      <c r="F280" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G280" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I280" s="10" t="s">
         <v>107</v>
       </c>
@@ -13243,6 +14722,12 @@
       <c r="E281" s="12">
         <v>45144</v>
       </c>
+      <c r="F281" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G281" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I281" s="10" t="s">
         <v>108</v>
       </c>
@@ -13278,6 +14763,12 @@
       <c r="E282" s="12">
         <v>45144</v>
       </c>
+      <c r="F282" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G282" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I282" s="10" t="s">
         <v>108</v>
       </c>
@@ -13313,6 +14804,12 @@
       <c r="E283" s="12">
         <v>45144</v>
       </c>
+      <c r="F283" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G283" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I283" s="10" t="s">
         <v>109</v>
       </c>
@@ -13348,6 +14845,12 @@
       <c r="E284" s="12">
         <v>45144</v>
       </c>
+      <c r="F284" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G284" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I284" s="10" t="s">
         <v>109</v>
       </c>
@@ -13383,6 +14886,12 @@
       <c r="E285" s="12">
         <v>45144</v>
       </c>
+      <c r="F285" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G285" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I285" s="10" t="s">
         <v>110</v>
       </c>
@@ -13418,6 +14927,12 @@
       <c r="E286" s="12">
         <v>45144</v>
       </c>
+      <c r="F286" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G286" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I286" s="10" t="s">
         <v>110</v>
       </c>
@@ -13453,6 +14968,12 @@
       <c r="E287" s="12">
         <v>45144</v>
       </c>
+      <c r="F287" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G287" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I287" s="10" t="s">
         <v>111</v>
       </c>
@@ -13488,6 +15009,12 @@
       <c r="E288" s="12">
         <v>45144</v>
       </c>
+      <c r="F288" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G288" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I288" s="10" t="s">
         <v>111</v>
       </c>
@@ -13523,6 +15050,12 @@
       <c r="E289" s="12">
         <v>45144</v>
       </c>
+      <c r="F289" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G289" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I289" s="10" t="s">
         <v>112</v>
       </c>
@@ -13558,6 +15091,12 @@
       <c r="E290" s="12">
         <v>45144</v>
       </c>
+      <c r="F290" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G290" s="16">
+        <v>0.875</v>
+      </c>
       <c r="I290" s="10" t="s">
         <v>112</v>
       </c>
@@ -13592,6 +15131,12 @@
       </c>
       <c r="E291" s="12">
         <v>45144</v>
+      </c>
+      <c r="F291" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G291" s="16">
+        <v>0.875</v>
       </c>
       <c r="I291" s="10" t="s">
         <v>113</v>
